--- a/data/chatapp-memory.xlsx
+++ b/data/chatapp-memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\netmauigraphics-chat-app-challenge\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F828B365-A1D1-4BEA-A687-9D65CE1385E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CF6423-50EE-4F3F-B325-88E7D6E08961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,7 +147,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -159,7 +159,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Components" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -411,7 +410,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Startup Time'!$B$4:$B$8</c:f>
+              <c:f>'Startup Time'!$B$4:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -425,10 +424,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Startup Time'!$C$4:$C$8</c:f>
+              <c:f>'Startup Time'!$C$4:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>240.876</c:v>
                 </c:pt>
@@ -1213,8 +1212,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Datos" displayName="Datos" ref="B3:C8">
-  <autoFilter ref="B3:C8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Datos" displayName="Datos" ref="B3:C5">
+  <autoFilter ref="B3:C5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="Fecha">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
@@ -1461,10 +1460,10 @@
     <tabColor theme="5"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:C8"/>
+  <dimension ref="B1:C6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,21 +1507,10 @@
         <v>180.89</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-    </row>
+    <row r="6" spans="2:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="C4:C8">
-    <cfRule type="dataBar" priority="15">
+  <conditionalFormatting sqref="C4:C5">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1535,50 +1523,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{51068DA9-2524-45D3-BF8B-4FBF3DB35AD4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{15E7263E-F4ED-40D6-85AA-B400A82F6632}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0CECCAEB-5AAA-43F2-9830-50A1D2013427}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C8">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="C4:C5">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1587,48 +1533,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{3ED109B2-0584-424C-9820-1731CB83B998}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="dataBar" priority="18">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8B92F4DC-22C5-4841-B50B-59E3DD89627A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E4404522-491F-4BC7-85A2-7041F8C0B51F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="dataBar" priority="20">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F358B0E7-23B9-41E7-8B1B-ACB726661976}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1662,40 +1566,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C4:C8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{51068DA9-2524-45D3-BF8B-4FBF3DB35AD4}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{15E7263E-F4ED-40D6-85AA-B400A82F6632}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0CECCAEB-5AAA-43F2-9830-50A1D2013427}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C8</xm:sqref>
+          <xm:sqref>C4:C5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3ED109B2-0584-424C-9820-1731CB83B998}">
@@ -1706,40 +1577,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C4:C8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8B92F4DC-22C5-4841-B50B-59E3DD89627A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E4404522-491F-4BC7-85A2-7041F8C0B51F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F358B0E7-23B9-41E7-8B1B-ACB726661976}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C8</xm:sqref>
+          <xm:sqref>C4:C5</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
